--- a/Table d'adressage Kikroit.xlsx
+++ b/Table d'adressage Kikroit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\TPI Andrea Fontana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\TPI Andrea Fontana\TPI-Infrastrucutre-d-une-PME-avec-deux-sites-distants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E360AF-2423-40D3-AC32-E85D25CEDB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038D45B8-05BB-4B62-B52F-AFCE9260E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{847383C8-1BEC-4E13-A2D4-47A1E99CA300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{847383C8-1BEC-4E13-A2D4-47A1E99CA300}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>Nom</t>
   </si>
@@ -189,9 +189,6 @@
     <t>G0/1</t>
   </si>
   <si>
-    <t>G0/1.20</t>
-  </si>
-  <si>
     <t>G0/1.50</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>192.168.50.10</t>
   </si>
   <si>
-    <t>192.168.20.51</t>
-  </si>
-  <si>
     <t>255.255.255.252</t>
   </si>
   <si>
@@ -243,13 +237,19 @@
     <t>192.168.10.1</t>
   </si>
   <si>
-    <t>192.168.20.1</t>
-  </si>
-  <si>
     <t>192.168.50.1</t>
   </si>
   <si>
     <t>192.168.10.2</t>
+  </si>
+  <si>
+    <t>G0/1.60</t>
+  </si>
+  <si>
+    <t>192.168.60.1</t>
+  </si>
+  <si>
+    <t>192.168.60.50</t>
   </si>
 </sst>
 </file>
@@ -327,20 +327,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -366,12 +361,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -391,6 +380,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -448,47 +440,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE5590DD-294D-4DA8-A3DA-239EA426E608}" name="Tableau4" displayName="Tableau4" ref="A2:G12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE5590DD-294D-4DA8-A3DA-239EA426E608}" name="Tableau4" displayName="Tableau4" ref="A2:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{FE5590DD-294D-4DA8-A3DA-239EA426E608}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52F7D73D-77F0-41F4-9583-62329941E1BA}" name="Nom" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A7EB03C4-8A1A-4976-BF2D-6DAEBE68E33B}" name="Rôle" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{7D80501A-6529-4A12-8C76-749226B9C6A6}" name="IP" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{67910399-B352-49D6-A17B-222113E6BF11}" name="Masque" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{73DEC2EA-1F81-401F-8EFA-2CD0B127B8C3}" name="Passerelle" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{4C00F0EC-1077-44E7-986C-C888BEEF6B6A}" name="DNS" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{E19AB872-4B07-4AD1-8622-2CA2C4EFB6EA}" name="DNS secondaire" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{52F7D73D-77F0-41F4-9583-62329941E1BA}" name="Nom" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A7EB03C4-8A1A-4976-BF2D-6DAEBE68E33B}" name="Rôle" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{7D80501A-6529-4A12-8C76-749226B9C6A6}" name="IP" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{67910399-B352-49D6-A17B-222113E6BF11}" name="Masque" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{73DEC2EA-1F81-401F-8EFA-2CD0B127B8C3}" name="Passerelle" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{4C00F0EC-1077-44E7-986C-C888BEEF6B6A}" name="DNS" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{E19AB872-4B07-4AD1-8622-2CA2C4EFB6EA}" name="DNS secondaire" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{332AC5F7-017E-4034-A0E1-E424E7FB2486}" name="Tableau1" displayName="Tableau1" ref="A15:F19" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A15:F19" xr:uid="{332AC5F7-017E-4034-A0E1-E424E7FB2486}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CC95A372-C77C-416E-A5EA-088DD8855854}" name="Interface" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7A138BD6-8541-463B-9007-2984DC7F5C7B}" name="Role" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FC8BFC5C-C5BB-489D-91AE-0DC91735C63D}" name="IP" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{A7B8B3CB-1379-4ED5-B955-2312919CFF71}" name="Masque" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C7886CBE-D26B-4016-8E4A-386FDF7D28AE}" name="Passerelle" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{5028C0B0-CEEB-455A-801D-BBCC8D29A205}" name="DNS" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{332AC5F7-017E-4034-A0E1-E424E7FB2486}" name="Tableau1" displayName="Tableau1" ref="A15:E19" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A15:E19" xr:uid="{332AC5F7-017E-4034-A0E1-E424E7FB2486}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CC95A372-C77C-416E-A5EA-088DD8855854}" name="Interface" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7A138BD6-8541-463B-9007-2984DC7F5C7B}" name="Role" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FC8BFC5C-C5BB-489D-91AE-0DC91735C63D}" name="IP" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A7B8B3CB-1379-4ED5-B955-2312919CFF71}" name="Masque" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C7886CBE-D26B-4016-8E4A-386FDF7D28AE}" name="Passerelle" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04FF6BE5-FF46-4587-A97C-1615BB209BD1}" name="Tableau13" displayName="Tableau13" ref="A23:G28" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A23:G28" xr:uid="{04FF6BE5-FF46-4587-A97C-1615BB209BD1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{982B16C2-5695-4A1C-9CD2-11A904EC537B}" name="Nom" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B7E34747-81FE-490D-9FE7-E3DD4821338D}" name="Interface" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{92F8AD4A-67DB-4EF2-B5AD-7569293A6F16}" name="Role" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B3FAC3D1-28D3-4C47-A292-C5276ACFA658}" name="IP" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DC235AF8-6F3C-49AD-8C1D-13AF5CBD2AC8}" name="Masque" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{BF1BBDBF-B7F9-4749-B217-3DDCFE78A867}" name="Passerelle" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{433E3F44-21FD-4D52-9FB0-9A160FD728B5}" name="DNS" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04FF6BE5-FF46-4587-A97C-1615BB209BD1}" name="Tableau13" displayName="Tableau13" ref="A23:F28" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A23:F28" xr:uid="{04FF6BE5-FF46-4587-A97C-1615BB209BD1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{982B16C2-5695-4A1C-9CD2-11A904EC537B}" name="Nom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B7E34747-81FE-490D-9FE7-E3DD4821338D}" name="Interface" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{92F8AD4A-67DB-4EF2-B5AD-7569293A6F16}" name="Role" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B3FAC3D1-28D3-4C47-A292-C5276ACFA658}" name="IP" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DC235AF8-6F3C-49AD-8C1D-13AF5CBD2AC8}" name="Masque" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BF1BBDBF-B7F9-4749-B217-3DDCFE78A867}" name="Passerelle" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -793,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535EC743-4C8F-4E0E-9929-BCF4A98B2503}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,22 +792,23 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,7 +827,7 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -857,10 +848,10 @@
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,14 +867,14 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,10 +894,10 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -917,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -929,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,7 +931,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -952,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -972,10 +963,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,13 +977,13 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -1009,13 +1000,13 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -1032,12 +1023,12 @@
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1055,29 +1046,29 @@
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,9 +1087,6 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1114,11 +1102,9 @@
         <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1128,17 +1114,15 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1148,17 +1132,15 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1168,27 +1150,25 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,9 +1190,6 @@
       <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1222,20 +1199,18 @@
         <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1245,20 +1220,18 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1268,20 +1241,18 @@
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1294,7 +1265,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
@@ -1302,19 +1273,17 @@
       <c r="F27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>69</v>
@@ -1325,15 +1294,13 @@
       <c r="F28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
